--- a/SDLT Running Code/Taylor Bot/FilteredExcel.xlsx
+++ b/SDLT Running Code/Taylor Bot/FilteredExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taylors\Taylor Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C635D9-8F44-4345-9468-B178354A71AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9616A31-F094-401D-B051-75646D38D11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ASSIGNED BY</t>
   </si>
@@ -37,61 +37,13 @@
     <t>MATTER TYPE</t>
   </si>
   <si>
-    <t>New Build Purchase</t>
-  </si>
-  <si>
-    <t>NBT1800</t>
-  </si>
-  <si>
-    <t>NBT1799</t>
-  </si>
-  <si>
-    <t>NBT1580</t>
-  </si>
-  <si>
-    <t>NBT1712</t>
-  </si>
-  <si>
-    <t>NBT1794</t>
-  </si>
-  <si>
-    <t>NBT1339</t>
-  </si>
-  <si>
-    <t>NBT896</t>
-  </si>
-  <si>
-    <t>NBT1826</t>
-  </si>
-  <si>
-    <t>NBT1744</t>
-  </si>
-  <si>
-    <t>S459/51824</t>
-  </si>
-  <si>
-    <t>S459/51825</t>
-  </si>
-  <si>
-    <t>S459/51826</t>
-  </si>
-  <si>
-    <t>S459/51827</t>
-  </si>
-  <si>
-    <t>S459/51828</t>
-  </si>
-  <si>
-    <t>S459/51829</t>
-  </si>
-  <si>
-    <t>S459/51830</t>
-  </si>
-  <si>
-    <t>S459/51831</t>
-  </si>
-  <si>
-    <t>S459/51832</t>
+    <t>Purchase TL</t>
+  </si>
+  <si>
+    <t>MRT1723</t>
+  </si>
+  <si>
+    <t>S459/53147</t>
   </si>
   <si>
     <t>SDLT Submitted</t>
@@ -104,22 +56,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -141,123 +81,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9" xr:uid="{44A84673-4444-43E5-989B-B69AAAE440CD}"/>
-    <cellStyle name="Normal 11" xfId="10" xr:uid="{91606F6B-6763-41F3-A43E-6251B3DD5663}"/>
-    <cellStyle name="Normal 12" xfId="11" xr:uid="{6A95E57C-2060-4A05-B6B5-D515DD6795B8}"/>
-    <cellStyle name="Normal 13" xfId="12" xr:uid="{33E0B0B9-4E19-4934-80EB-FC1B03F77A26}"/>
-    <cellStyle name="Normal 14" xfId="13" xr:uid="{2598173F-056C-4CB8-A7EB-59F50C9F2F6A}"/>
-    <cellStyle name="Normal 15" xfId="14" xr:uid="{BD09BB2F-7EBB-458F-837E-D473DFFC13F5}"/>
-    <cellStyle name="Normal 16" xfId="15" xr:uid="{C3E06F5B-C809-4280-90BF-5FF041A16EE2}"/>
-    <cellStyle name="Normal 17" xfId="16" xr:uid="{F64F7C43-3544-4487-9104-C55127157DA6}"/>
-    <cellStyle name="Normal 18" xfId="17" xr:uid="{B92FB716-235A-4AC8-99A5-ED406107D174}"/>
-    <cellStyle name="Normal 19" xfId="18" xr:uid="{8151D6C9-00BE-4B2F-89FF-AD8FFCA686DF}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B0708DCC-5CC9-4758-BD2D-9B966E5E2A14}"/>
-    <cellStyle name="Normal 20" xfId="19" xr:uid="{3096BEB4-5F87-41EF-B9CB-7FCCF80D49A7}"/>
-    <cellStyle name="Normal 21" xfId="20" xr:uid="{179E03F0-5907-4DB4-9C1B-58BDF6899A24}"/>
-    <cellStyle name="Normal 22" xfId="21" xr:uid="{20E695E8-1C66-4A17-9601-805C68A9EDE0}"/>
-    <cellStyle name="Normal 23" xfId="22" xr:uid="{9F2BF2DC-A642-408B-8A0B-56CCE6E8C765}"/>
-    <cellStyle name="Normal 24" xfId="23" xr:uid="{99806D94-87B1-4F63-8DC3-4CAA051B1A0A}"/>
-    <cellStyle name="Normal 25" xfId="24" xr:uid="{0CA832EE-A013-4B50-AB72-61D3F17F50F4}"/>
-    <cellStyle name="Normal 26" xfId="25" xr:uid="{50DA853D-7EE4-49D8-B90D-869C563028C7}"/>
-    <cellStyle name="Normal 27" xfId="26" xr:uid="{35551A70-80A9-4D36-9255-AEAEB6ABFBC2}"/>
-    <cellStyle name="Normal 28" xfId="27" xr:uid="{CCFDF70B-5C17-42A8-A0AE-DA8D51B97EB1}"/>
-    <cellStyle name="Normal 29" xfId="28" xr:uid="{99472D03-70AE-42C7-B6DB-246FAF4E8897}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{4D8FEB35-38F4-48AD-BB37-7E11DF18F4E3}"/>
-    <cellStyle name="Normal 30" xfId="29" xr:uid="{A0369C8C-22D2-4D56-B2DF-ABE7ABA540F0}"/>
-    <cellStyle name="Normal 31" xfId="30" xr:uid="{5977FC8F-5C6B-4E41-8E6D-FD6917C705DE}"/>
-    <cellStyle name="Normal 32" xfId="31" xr:uid="{231AA5B4-3E88-4B91-B2D4-E134B7F66933}"/>
-    <cellStyle name="Normal 33" xfId="32" xr:uid="{6BF6FC15-23D4-4FB9-9577-CE439053E493}"/>
-    <cellStyle name="Normal 34" xfId="33" xr:uid="{177E7DEF-A817-4D0C-96CA-76F793148E9A}"/>
-    <cellStyle name="Normal 35" xfId="34" xr:uid="{465178FD-CB84-4AC3-9C95-EE5B34EF1CE1}"/>
-    <cellStyle name="Normal 36" xfId="35" xr:uid="{D5D22DF1-8D6A-4E4C-A509-B52C8F27779A}"/>
-    <cellStyle name="Normal 37" xfId="36" xr:uid="{963E3F00-2A54-4EEE-B496-8CE4885CAA51}"/>
-    <cellStyle name="Normal 38" xfId="37" xr:uid="{1DDFB8F1-0931-4EC2-BC03-F98F6C9D7BCD}"/>
-    <cellStyle name="Normal 39" xfId="38" xr:uid="{8CE23316-C29A-42A0-9CD6-8262087F0A79}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{CB369BA7-0337-4061-A2AC-C3CE203D5E68}"/>
-    <cellStyle name="Normal 40" xfId="39" xr:uid="{B6DAC1C2-238A-46BC-96E0-A2087C515B88}"/>
-    <cellStyle name="Normal 41" xfId="40" xr:uid="{D1B3DF08-E072-48E2-8A80-57F9887A5E21}"/>
-    <cellStyle name="Normal 42" xfId="41" xr:uid="{2EB7EC6A-2F50-4E0C-B39C-AAD46AC9BB84}"/>
-    <cellStyle name="Normal 43" xfId="42" xr:uid="{68740326-CB71-4748-B1E7-89A8F99D7027}"/>
-    <cellStyle name="Normal 44" xfId="43" xr:uid="{1DDFEFA3-0E19-44A9-8A24-3DEFE69481A8}"/>
-    <cellStyle name="Normal 45" xfId="44" xr:uid="{A9EFAA3E-D61C-4266-ABD6-28FE05B27F87}"/>
-    <cellStyle name="Normal 46" xfId="45" xr:uid="{FA3581C0-51DB-4F4F-A607-08167395EC75}"/>
-    <cellStyle name="Normal 47" xfId="46" xr:uid="{7C21DC2D-8070-466B-BEE0-90B5A77F37E9}"/>
-    <cellStyle name="Normal 48" xfId="47" xr:uid="{D913E1C3-49D5-4398-9007-D2988ABE22F7}"/>
-    <cellStyle name="Normal 49" xfId="48" xr:uid="{5037D28F-8676-4075-BC0A-589C2E2B1839}"/>
-    <cellStyle name="Normal 5" xfId="4" xr:uid="{A78F2201-755C-46C8-B9C2-FB99681B8104}"/>
-    <cellStyle name="Normal 50" xfId="49" xr:uid="{F91C395F-8C49-4708-8C27-84B6414ABD3A}"/>
-    <cellStyle name="Normal 51" xfId="50" xr:uid="{4306292B-9977-4D55-8324-A5FADE7A7A63}"/>
-    <cellStyle name="Normal 52" xfId="51" xr:uid="{D665B01E-65AE-402A-8C9C-7EB38BD74D63}"/>
-    <cellStyle name="Normal 53" xfId="52" xr:uid="{A95D1D44-5837-43C6-AFE9-7F4EF9DB289F}"/>
-    <cellStyle name="Normal 54" xfId="53" xr:uid="{32C0E14D-42F1-4327-8198-92BD28971A59}"/>
-    <cellStyle name="Normal 55" xfId="54" xr:uid="{2A426E15-F05D-4CC6-B1F8-A36BDDCA9EAA}"/>
-    <cellStyle name="Normal 6" xfId="5" xr:uid="{CAE4CF45-50B7-45C3-9F23-9A02D4D79CB7}"/>
-    <cellStyle name="Normal 7" xfId="6" xr:uid="{D5DECF2E-E977-4B9C-8526-7FF8074CB5A7}"/>
-    <cellStyle name="Normal 8" xfId="7" xr:uid="{9D20047F-FC57-48B1-B112-3F57F6A2F4A7}"/>
-    <cellStyle name="Normal 9" xfId="8" xr:uid="{F9D235C0-452B-4811-9DEE-5E25C8B9D786}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,159 +415,22 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>
--- a/SDLT Running Code/Taylor Bot/FilteredExcel.xlsx
+++ b/SDLT Running Code/Taylor Bot/FilteredExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taylors\Taylor Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9616A31-F094-401D-B051-75646D38D11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33963D6-0F4B-4A84-9AC3-21C146D1093B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>ASSIGNED BY</t>
   </si>
@@ -37,13 +37,25 @@
     <t>MATTER TYPE</t>
   </si>
   <si>
-    <t>Purchase TL</t>
-  </si>
-  <si>
-    <t>MRT1723</t>
-  </si>
-  <si>
-    <t>S459/53147</t>
+    <t>New Build Purchase</t>
+  </si>
+  <si>
+    <t>NNT1028</t>
+  </si>
+  <si>
+    <t>S459/50672</t>
+  </si>
+  <si>
+    <t>NBT1872</t>
+  </si>
+  <si>
+    <t>S459/53841</t>
+  </si>
+  <si>
+    <t>NNT1227</t>
+  </si>
+  <si>
+    <t>S459/53760</t>
   </si>
   <si>
     <t>SDLT Submitted</t>
@@ -388,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,10 +427,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -427,6 +439,40 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/SDLT Running Code/Taylor Bot/FilteredExcel.xlsx
+++ b/SDLT Running Code/Taylor Bot/FilteredExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taylors\Taylor Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33963D6-0F4B-4A84-9AC3-21C146D1093B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FFD95A-5B51-4A21-9C4B-77098E6D465C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ASSIGNED BY</t>
   </si>
@@ -40,22 +40,19 @@
     <t>New Build Purchase</t>
   </si>
   <si>
-    <t>NNT1028</t>
-  </si>
-  <si>
-    <t>S459/50672</t>
-  </si>
-  <si>
-    <t>NBT1872</t>
-  </si>
-  <si>
-    <t>S459/53841</t>
-  </si>
-  <si>
-    <t>NNT1227</t>
-  </si>
-  <si>
-    <t>S459/53760</t>
+    <t>MRT1835</t>
+  </si>
+  <si>
+    <t>Purchase TL</t>
+  </si>
+  <si>
+    <t>S459/53671</t>
+  </si>
+  <si>
+    <t>NBT1893</t>
+  </si>
+  <si>
+    <t>S459/53977</t>
   </si>
   <si>
     <t>SDLT Submitted</t>
@@ -400,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,52 +424,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
